--- a/pesantren/ledger.xlsx
+++ b/pesantren/ledger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D72036-7694-4509-8D0C-54C3B26CEB8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFED7A3-C3ED-4BF4-9C2E-687B24F41F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="127">
   <si>
     <t>NIS</t>
   </si>
@@ -358,318 +358,6 @@
     <t xml:space="preserve">Masya Allah Ananda Safaraz bisa mengikuti proses kegiatan belajar dengan sangat baik, semoga Allah tambahkan ilmunya serta dilimpahkan keberkahan </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Nando sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tengah</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas perbaikan kualitas bacaan untuk persiapan menghafal Al Quran karena bacaan Ananda secara tajwid perlu perbaikan berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga pengucapan huruf dan harokat, bacaan yang panjang dan pendek, bacaan dengung, dan tempo bacaan tartil. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Shinra sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Hazwan sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Khalid sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, melatih nafas panjang, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Mila sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga tempo bacaan tartil, berlatih nafas panjang, perhatikan kembali terkait waqaf bacaan, serta makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Radja sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, melatih nafas panjang, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Rayhan sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tengah</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas perbaikan kualitas bacaan untuk persiapan menghafal Al Quran karena bacaan Ananda secara tajwid perlu perbaikan berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan cukup baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung, tempo bacaan tartil, tanda baca tajwid dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Najwa sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah sangat baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Nayla sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga tempo bacaan tartil, berlatih nafas panjang, bacaan Mad, serta makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Nida sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas dan perlu berlatih fokus ketika tilawah. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil, berlatih nafas panjang, perhatikan kaidah waqaf dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Rihal sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah sangat baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Safaraz sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah sangat baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alhamdulillah Ananda Faiq sudah mencapai marhalah </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas dan perlu berlatih fokus ketika tilawah. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil, berlatih nafas panjang, perhatikan kaidah waqaf dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
-    </r>
-  </si>
-  <si>
     <t>Muhammad Zaini, S.Psi.</t>
   </si>
   <si>
@@ -677,6 +365,48 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Nando sudah mencapai marhalah Tengah, yaitu kelas perbaikan kualitas bacaan untuk persiapan menghafal Al Quran karena bacaan Ananda secara tajwid perlu perbaikan berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga pengucapan huruf dan harokat, bacaan yang panjang dan pendek, bacaan dengung, dan tempo bacaan tartil. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Shinra sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Hazwan sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Khalid sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, melatih nafas panjang, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Mila sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga tempo bacaan tartil, berlatih nafas panjang, perhatikan kembali terkait waqaf bacaan, serta makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Radja sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga bacaan Mad, melatih nafas panjang, dengung, tempo bacaan tartil dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Rayhan sudah mencapai marhalah Tengah, yaitu kelas perbaikan kualitas bacaan untuk persiapan menghafal Al Quran karena bacaan Ananda secara tajwid perlu perbaikan berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan cukup baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung, tempo bacaan tartil, tanda baca tajwid dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Najwa sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah sangat baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Nayla sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga tempo bacaan tartil, berlatih nafas panjang, bacaan Mad, serta makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Nida sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas dan perlu berlatih fokus ketika tilawah. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil, berlatih nafas panjang, perhatikan kaidah waqaf dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Rihal sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah sangat baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Safaraz sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah sangat baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas. Agar lebih baik, Ananda perlu menjaga konsistensi bacaan Mad, dengung dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Alhamdulillah Ananda Faiq sudah mencapai marhalah Siap, yaitu kelas persiapan untuk menghafal Al Quran karena bacaan Ananda secara tajwid sudah baik berdasarkan uji kenaikan marhalah. Demikian juga terkait adab, Alhamdulillah Ananda menjaga adab dengan baik ketika di dalam kelas dan perlu berlatih fokus ketika tilawah. Agar lebih baik, Ananda perlu menjaga bacaan Mad, dengung, tempo bacaan tartil, berlatih nafas panjang, perhatikan kaidah waqaf dan makhroj huruf. Besar harapan kami agar Ananda tetap merutinkan tilawah Al Quran dan memperbaiki kualitas bacaannya. Semoga Allah menjadikan Ananda sebagai Ahlul Quran.</t>
+  </si>
+  <si>
+    <t>Secara akademis, ananda meraih pencapaian yang baik. Semoga bisa ditingkatkan lagi.</t>
   </si>
 </sst>
 </file>
@@ -692,6 +422,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,13 +506,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1011,19 +741,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,24 +761,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1061,10 +791,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1072,7 +802,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +826,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1112,93 +842,96 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2433,13 +2166,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:K15"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2457,7 +2190,7 @@
     <col min="15" max="15" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" thickBot="1">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2503,10 +2236,8 @@
       <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A2</f>
         <v>21.02.019</v>
@@ -2531,18 +2262,20 @@
         <v>94</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>105</v>
       </c>
       <c r="J2" s="39"/>
-      <c r="K2" s="24"/>
+      <c r="K2" s="73" t="s">
+        <v>126</v>
+      </c>
       <c r="O2" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A3</f>
         <v>21.02.020</v>
@@ -2567,7 +2300,7 @@
         <v>94</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>106</v>
@@ -2576,7 +2309,7 @@
       <c r="K3" s="24"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A4</f>
         <v>21.02.021</v>
@@ -2601,7 +2334,7 @@
         <v>95</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>107</v>
@@ -2610,7 +2343,7 @@
       <c r="K4" s="24"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A5</f>
         <v>21.02.022</v>
@@ -2635,7 +2368,7 @@
         <v>94</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>106</v>
@@ -2644,7 +2377,7 @@
       <c r="K5" s="24"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A6" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A6</f>
         <v>21.02.031</v>
@@ -2669,7 +2402,7 @@
         <v>95</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I6" s="49" t="s">
         <v>106</v>
@@ -2678,7 +2411,7 @@
       <c r="K6" s="24"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A7</f>
         <v>21.02.023</v>
@@ -2703,7 +2436,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>105</v>
@@ -2712,7 +2445,7 @@
       <c r="K7" s="24"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A8" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A8</f>
         <v>21.02.025</v>
@@ -2737,7 +2470,7 @@
         <v>94</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>105</v>
@@ -2746,7 +2479,7 @@
       <c r="K8" s="24"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A9</f>
         <v>21.02.032</v>
@@ -2771,7 +2504,7 @@
         <v>95</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I9" s="50" t="s">
         <v>108</v>
@@ -2780,7 +2513,7 @@
       <c r="K9" s="24"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A10</f>
         <v>21.02.033</v>
@@ -2805,7 +2538,7 @@
         <v>94</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>106</v>
@@ -2814,7 +2547,7 @@
       <c r="K10" s="24"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A11</f>
         <v>21.02.034</v>
@@ -2839,7 +2572,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>105</v>
@@ -2848,7 +2581,7 @@
       <c r="K11" s="24"/>
       <c r="O11" s="29"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A12</f>
         <v>21.02.027</v>
@@ -2873,7 +2606,7 @@
         <v>95</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I12" s="49" t="s">
         <v>106</v>
@@ -2882,7 +2615,7 @@
       <c r="K12" s="24"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A13</f>
         <v>21.02.036</v>
@@ -2907,7 +2640,7 @@
         <v>95</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>109</v>
@@ -2919,7 +2652,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="A14" s="22" t="str">
         <f>'ANGKA (Input Nilai)'!A14</f>
         <v>21.02.038</v>
@@ -2944,7 +2677,7 @@
         <v>94</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I14" s="49" t="s">
         <v>106</v>
@@ -2956,7 +2689,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3087,7 +2820,7 @@
       <c r="C6" s="69"/>
       <c r="D6" s="72"/>
       <c r="E6" s="12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
@@ -3918,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="52" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
